--- a/racine.xlsx
+++ b/racine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1B88AC-239E-44D7-A882-537DC9E64B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594DE5C1-61C6-42BD-A2A8-EF4E2DE32E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{08148033-FE47-41B2-AD4E-DBD08416BCD4}"/>
+    <workbookView xWindow="-105" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{08148033-FE47-41B2-AD4E-DBD08416BCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>variete</t>
   </si>
@@ -60,15 +60,6 @@
     <t>KWS Juno</t>
   </si>
   <si>
-    <t>niveau</t>
-  </si>
-  <si>
-    <t>densite_laterale</t>
-  </si>
-  <si>
-    <t>nombre_par_niveau</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -126,61 +117,34 @@
     <t>J3</t>
   </si>
   <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>V4</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>V6</t>
-  </si>
-  <si>
     <t>J6</t>
   </si>
   <si>
-    <t>ratio_dia</t>
+    <t>lvl1</t>
+  </si>
+  <si>
+    <t>lvl2</t>
+  </si>
+  <si>
+    <t>lvl3</t>
+  </si>
+  <si>
+    <t>lvl4</t>
+  </si>
+  <si>
+    <t>lvl5</t>
   </si>
 </sst>
 </file>
@@ -547,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C89BFBE-0957-41C4-BB63-A791C206C6B9}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,312 +524,553 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +1084,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:C15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
